--- a/biology/Botanique/Coléus/Coléus.xlsx
+++ b/biology/Botanique/Coléus/Coléus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Col%C3%A9us</t>
+          <t>Coléus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coleus, Plectranthus, Solenostemon · Colioles
 Les Coléus ou Colioles sont des plantes d'origine tropicale, de la famille des Lamiacées (Lamiaceae) dont la classification a évolué, si bien que le genre Coleus, et les espèces qui le constituent, sont à présent classés par les botanistes dans le genre Plectranthus. Le mot reste toutefois utilisé comme nom vernaculaire en horticulture ou en phytothérapie. Les coléus sont des plantes de culture facile et à croissance rapide. Certaines variétés horticoles, hybrides ou cultivars de Plectranthus scutellarioides, présentent un feuillage coloré spectaculaire. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Col%C3%A9us</t>
+          <t>Coléus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Coléus originels
-La plupart des espèces de Coleus sauvages ont des feuilles vertes dentelées qui évoquent celles de l'ortie ou la menthe, et une inflorescence en épi portant de petites fleurs de couleur bleu tirant plus ou moins sur le violet.
+          <t>Coléus originels</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces de Coleus sauvages ont des feuilles vertes dentelées qui évoquent celles de l'ortie ou la menthe, et une inflorescence en épi portant de petites fleurs de couleur bleu tirant plus ou moins sur le violet.
 	Quelques anciennes espèces du genre Coleus
 			C. amboinicus = Plectranthus amboinicus
 			C. forskohlii = Plectranthus barbatus
@@ -523,46 +540,48 @@
 			C. madagascariensis = P. madagascariensis
 			C. neochilus = Plectranthus neochilus
 			C. Coleus blumei = Plectranthus scutellarioides
-Coléus d'ornement
-La coloration remarquables des feuilles de certains coléus est due à des disparités de pigmentation entre les différentes zones qui les constituent. Certaines zones peuvent être entièrement dépourvues de chlorophylle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coléus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Col%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Coléus d'ornement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coloration remarquables des feuilles de certains coléus est due à des disparités de pigmentation entre les différentes zones qui les constituent. Certaines zones peuvent être entièrement dépourvues de chlorophylle.
 	Quelques coléus horticoles
 			Hybride 'Lime Frills'
 			Hybride 'Inky Fingers'
 			Hybride 'Rustic Orange'
 			Hybride 'Japanese Giant'
-Confusion
-Les coléus peuvent être confondues notamment avec les plantes du genre Perilla, parmi lesquelles la Pérille de Nankin (Perilla frutescens), une plante cultivée asiatique pour laquelle il existe aussi des cultivars colorés.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Col%C3%A9us</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Col%C3%A9us</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces plantes proviennent des forêts tropicales d'Asie, d'Amérique, d'Afrique et d'îles du Pacifique.
 </t>
         </is>
       </c>
@@ -573,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Col%C3%A9us</t>
+          <t>Coléus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,14 +607,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confusion</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les coléus peuvent être confondues notamment avec les plantes du genre Perilla, parmi lesquelles la Pérille de Nankin (Perilla frutescens), une plante cultivée asiatique pour laquelle il existe aussi des cultivars colorés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coléus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Col%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces plantes proviennent des forêts tropicales d'Asie, d'Amérique, d'Afrique et d'îles du Pacifique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coléus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Col%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce type, Coleus aromaticus (Plectranthus amboinicus), aussi appelé origan cubain, est utilisée comme plante aromatique et médicinale[1]. 
-Connue aussi sous ses anciens noms scientifiques Coleus blumei ou C. pumilus, l'espèce Plectranthus scutellarioides est à l'origine de nombreux hybrides ou des cultivars, dont l'intérêt ornemental réside principalement dans le feuillage décoratif. Les Mazatèques de Oaxaca utilisent cette plante pour ses propriétés psychotomimétiques[2].
-Le Coléus de l'Inde (Plectranthus barbatus), anciennement Coleus forskohlii ou C. barbatus, est largement cultivée pour ses composants aux propriétés médicinales[3] et notamment un diterpénoïde contenu dans ses racines, le coléonol ou forskoline qui lui vaut aussi le nom usuel de Coléus à forskoline.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type, Coleus aromaticus (Plectranthus amboinicus), aussi appelé origan cubain, est utilisée comme plante aromatique et médicinale. 
+Connue aussi sous ses anciens noms scientifiques Coleus blumei ou C. pumilus, l'espèce Plectranthus scutellarioides est à l'origine de nombreux hybrides ou des cultivars, dont l'intérêt ornemental réside principalement dans le feuillage décoratif. Les Mazatèques de Oaxaca utilisent cette plante pour ses propriétés psychotomimétiques.
+Le Coléus de l'Inde (Plectranthus barbatus), anciennement Coleus forskohlii ou C. barbatus, est largement cultivée pour ses composants aux propriétés médicinales et notamment un diterpénoïde contenu dans ses racines, le coléonol ou forskoline qui lui vaut aussi le nom usuel de Coléus à forskoline.
 			« Origan » cubain (Plectranthus amboinicus, ici la variété 'Variegatus')
 			Le coléus à forskoline (Plectranthus barbatus)
 			Jeunes plants de coléus issu de Plectranthus scutellarioides
@@ -603,31 +694,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Col%C3%A9us</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coléus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Col%C3%A9us</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coléus sont des plantes de culture facile. Elles poussent bien dans un sol léger et riche (un mélange 3/4 terreau-1/4sable grossier) avec une exposition lumineuse, mais pas de plein soleil. 
 Elles ne supportent pas les températures basses et il faut les rentrer en hiver si elles descendent en dessous de 10°c. 
@@ -637,71 +730,145 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Col%C3%A9us</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coléus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Col%C3%A9us</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Déprédateur</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est très appréciée des chenilles du papillon de nuit Ctenoplusia accentifera Lefebvre (dont le nom français est Plusie de la Menthe car il affectionne aussi la menthe).
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Col%C3%A9us</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coléus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Col%C3%A9us</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[4] aussi bien qu'en classification phylogénétique APG III (2009)[5], les espèces sauvages ou cultivées sont classées dans la famille des Lamiaceae, ordre des Lamiales.
-Histoire du genre
-À l'origine, toutes ces plantes étaient regroupées en un genre botanique nommé Coleus. 
-Le genre Coleus a été décrit en 1790 par João de Loureiro[6]. Il tient son origine du mot grec koleos qui signifie fourreau, allusion à la disposition des étamines, dans une sorte de gaine[7].
-Par la suite, les espèces ont été classées ailleurs, notamment dans Solenostemon. Au début du XXIe siècle l'espèce type, Coleus amboinicus, a été placée dans Plectranthus sous le nom binominal de Plectranthus amboinicus. Coleus est donc généralement considéré comme un synonyme du genre Plectranthus LHér. 1788[8],[9],[10].
-Les plantes cultivées décoratives, traditionnellement nommées « coléus » en français, correspondaient à l'espèce Coleus blumei, nommée ainsi en hommage au botaniste néerlandais Carl Ludwig Blume qui l'a découverte à Java et rapportée en Europe au milieu du XIXe siècle. Fréquemment renommée par la suite, notamment Solenostemon scutellarioides en 2006, ces coléus d'ornement sont depuis 2012 assimilés à l'espèce Plectranthus scutellarioides[11].
-Liste d'espèces
-Quelques espèces de Coleus obsolètes et taxons valides selon GRIN            (27 octobre 2015)[12] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) aussi bien qu'en classification phylogénétique APG III (2009), les espèces sauvages ou cultivées sont classées dans la famille des Lamiaceae, ordre des Lamiales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coléus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Col%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Histoire du genre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine, toutes ces plantes étaient regroupées en un genre botanique nommé Coleus. 
+Le genre Coleus a été décrit en 1790 par João de Loureiro. Il tient son origine du mot grec koleos qui signifie fourreau, allusion à la disposition des étamines, dans une sorte de gaine.
+Par la suite, les espèces ont été classées ailleurs, notamment dans Solenostemon. Au début du XXIe siècle l'espèce type, Coleus amboinicus, a été placée dans Plectranthus sous le nom binominal de Plectranthus amboinicus. Coleus est donc généralement considéré comme un synonyme du genre Plectranthus LHér. 1788.
+Les plantes cultivées décoratives, traditionnellement nommées « coléus » en français, correspondaient à l'espèce Coleus blumei, nommée ainsi en hommage au botaniste néerlandais Carl Ludwig Blume qui l'a découverte à Java et rapportée en Europe au milieu du XIXe siècle. Fréquemment renommée par la suite, notamment Solenostemon scutellarioides en 2006, ces coléus d'ornement sont depuis 2012 assimilés à l'espèce Plectranthus scutellarioides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coléus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Col%C3%A9us</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quelques espèces de Coleus obsolètes et taxons valides selon GRIN            (27 octobre 2015) :
 Coleus alpinus Vatke = Plectranthus alpinus (Vatke) Ryding
 Coleus amboinicus Lour. = Plectranthus amboinicus (Lour.) Spreng.
 Coleus aromaticus auct. = Plectranthus amboinicus (Lour.) Spreng.
@@ -727,7 +894,7 @@
 Coleus tuberosus (Blume) Benth. = Plectranthus rotundifolius (Poir.) Spreng.
 Coleus verschaffeltii Lem. = Plectranthus scutellarioides (L.) R. Br.
 Espèces ou synonymes selon Tropicos
-Selon Tropicos                                           (26 octobre 2015)[13] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 octobre 2015) (Attention liste brute contenant possiblement des synonymes) :
 Coleus aconitiflorus Welw. ex Hiern
 Coleus acuminatus Benth.
 Coleus adolfi-friderici Perkins
